--- a/biology/Botanique/Beurré_Dumont/Beurré_Dumont.xlsx
+++ b/biology/Botanique/Beurré_Dumont/Beurré_Dumont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumont</t>
+          <t>Beurré_Dumont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ’Beurré Dumont est une variété de poire obtenue en 1831 par Joseph Dumont à Erquelinnes, près de Tournai, en Belgique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ’Beurré Dumont est une variété de poire obtenue en 1831 par Joseph Dumont à Erquelinnes, près de Tournai, en Belgique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumont</t>
+          <t>Beurré_Dumont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumont</t>
+          <t>Beurré_Dumont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La poire est d’origine belge.
 Elle est obtenue, en 1831, par Joseph Dumont-Dachy, jardinier au château du baron de Joigny, à Erquelinnes, près de Tournai (Belgique).
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumont</t>
+          <t>Beurré_Dumont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,13 +585,15 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux. Gros, longs, brun rougeâtre violacé ; à lenticelles petites, un peu rouges.
 Yeux. Petits, pointus, légèrement écartés du rameau.
 Culture. L'arbre, de vigueur modérée, fertile, propre à toutes formes sur cognassier, vient à toutes les expositions. Il peut être cultivé dans toutes les régions, en terrain riche, et avec une taille ordinaire.
 Peu ou pas du tout sujet à la tavelure.
-C'est un fruit d'amateur[2].
+C'est un fruit d'amateur.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumont</t>
+          <t>Beurré_Dumont</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruit. Gros, tantôt pyramidal et tronqué à la base, tantôt turbiné, obtus et ventru, bosselé dans son pourtour. .
 Épiderme. - Rude, jaune, lavé de fauve, se dorant du côté du soleil, avec quelques marbrures plus foncées, pointillé de gris.
